--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -30,7 +30,16 @@
     <t>Buff</t>
   </si>
   <si>
-    <t>AutoDestroy</t>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>CooldownTime</t>
+  </si>
+  <si>
+    <t>IsConsumables</t>
   </si>
   <si>
     <t>MaxCount</t>
@@ -51,10 +60,24 @@
 value为buff初始化参数</t>
   </si>
   <si>
-    <t>使用完成后是否自动销毁</t>
-  </si>
-  <si>
-    <t>最大叠加次数</t>
+    <t>道具使用条件
+参数配置方式与buff字段相同
+性名称请参阅condition属性表</t>
+  </si>
+  <si>
+    <t>道具使用效果
+参数配置方式与buff字段相同
+性名称请参阅effect属性表</t>
+  </si>
+  <si>
+    <t>使用一次后的冷却时间
+单位: 秒</t>
+  </si>
+  <si>
+    <t>是否是消耗品, 如果为true, 则每次使用都会消耗叠加数量</t>
+  </si>
+  <si>
+    <t>最大叠加次数, 仅当IsConsumables为true时有效</t>
   </si>
   <si>
     <t>string</t>
@@ -66,10 +89,43 @@
     <t>{string:[float]}*</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
     <t>uint</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>医药箱</t>
+  </si>
+  <si>
+    <t>prop5000</t>
+  </si>
+  <si>
+    <t>"HpFull":[0]</t>
+  </si>
+  <si>
+    <t>"Hp":[2]</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>弹药箱</t>
+  </si>
+  <si>
+    <t>prop5001</t>
+  </si>
+  <si>
+    <t>"AmmoFull":[0]</t>
+  </si>
+  <si>
+    <t>"TotalAmmo":[]</t>
   </si>
 </sst>
 </file>
@@ -698,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,13 +768,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1071,27 +1124,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.7692307692308" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="35.4615384615385" customWidth="1"/>
-    <col min="6" max="6" width="28.8076923076923" customWidth="1"/>
+    <col min="3" max="3" width="25.7692307692308" style="3" customWidth="1"/>
+    <col min="4" max="6" width="51" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.2403846153846" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.4423076923077" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5384615384615" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:6">
+    <row r="1" ht="31" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,120 +1156,183 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="102" customHeight="1" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="102" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" ht="41" customHeight="1" spans="3:4">
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" ht="28" customHeight="1" spans="3:3">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="3:3">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" ht="29" customHeight="1" spans="3:3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" ht="34" customHeight="1" spans="3:3">
-      <c r="C16" s="3"/>
-    </row>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="4:7">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="4:7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="4:7">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="4:7">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="4:7">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="4:7">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="41" customHeight="1" spans="4:7">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" ht="28" customHeight="1"/>
+    <row r="14" ht="36" customHeight="1"/>
+    <row r="15" ht="29" customHeight="1"/>
+    <row r="16" ht="34" customHeight="1"/>
     <row r="17" ht="14" customHeight="1"/>
     <row r="18" ht="14" customHeight="1"/>
     <row r="19" ht="14" customHeight="1"/>
@@ -1232,40 +1350,40 @@
     <row r="31" ht="13" customHeight="1"/>
     <row r="32" ht="13" customHeight="1"/>
     <row r="33" ht="13" customHeight="1" spans="1:1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" ht="13" customHeight="1" spans="1:1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" ht="13" customHeight="1" spans="1:1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" ht="13" customHeight="1" spans="1:1">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" ht="13" customHeight="1" spans="1:1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" ht="13" customHeight="1" spans="1:1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" ht="13" customHeight="1" spans="1:1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" ht="13" customHeight="1" spans="1:1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" ht="13" customHeight="1" spans="1:1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" ht="13" customHeight="1" spans="1:1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" ht="13" customHeight="1" spans="1:1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" ht="13" customHeight="1" spans="1:1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" ht="13" customHeight="1"/>
     <row r="46" ht="13" customHeight="1"/>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -1131,7 +1131,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>"TotalAmmo":[]</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>猪猪存钱罐</t>
+  </si>
+  <si>
+    <t>prop5002</t>
+  </si>
+  <si>
+    <t>"PiggyBank":[2]</t>
   </si>
 </sst>
 </file>
@@ -754,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,10 +780,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1131,7 +1140,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1139,11 +1148,11 @@
     <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.7692307692308" style="3" customWidth="1"/>
-    <col min="4" max="6" width="51" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.2403846153846" style="4" customWidth="1"/>
+    <col min="4" max="6" width="51" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.2403846153846" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.4423076923077" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5384615384615" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
+    <col min="9" max="9" width="18.5384615384615" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:9">
@@ -1156,22 +1165,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1200,7 +1209,7 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1214,22 +1223,22 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1243,7 +1252,6 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1264,7 @@
       <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1270,7 +1278,6 @@
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1283,52 +1290,40 @@
       <c r="H5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="4:7">
+    <row r="6" ht="33" customHeight="1" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="4:7">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="4:7">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="4:7">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="4:7">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="4:7">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" ht="41" customHeight="1" spans="4:7">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1"/>
+    <row r="8" ht="33" customHeight="1"/>
+    <row r="9" ht="33" customHeight="1"/>
+    <row r="10" ht="33" customHeight="1"/>
+    <row r="11" ht="33" customHeight="1"/>
+    <row r="12" ht="41" customHeight="1"/>
     <row r="13" ht="28" customHeight="1"/>
     <row r="14" ht="36" customHeight="1"/>
     <row r="15" ht="29" customHeight="1"/>
@@ -1350,40 +1345,40 @@
     <row r="31" ht="13" customHeight="1"/>
     <row r="32" ht="13" customHeight="1"/>
     <row r="33" ht="13" customHeight="1" spans="1:1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" ht="13" customHeight="1" spans="1:1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" ht="13" customHeight="1" spans="1:1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" ht="13" customHeight="1" spans="1:1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" ht="13" customHeight="1" spans="1:1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" ht="13" customHeight="1" spans="1:1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" ht="13" customHeight="1" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" ht="13" customHeight="1" spans="1:1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" ht="13" customHeight="1" spans="1:1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" ht="13" customHeight="1" spans="1:1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" ht="13" customHeight="1" spans="1:1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" ht="13" customHeight="1" spans="1:1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" ht="13" customHeight="1"/>
     <row r="46" ht="13" customHeight="1"/>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14040"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Effect</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>CooldownTime</t>
@@ -70,6 +76,17 @@
 性名称请参阅effect属性表</t>
   </si>
   <si>
+    <t>道具充能效果
+参数配置方式与buff字段相同
+性名称请参阅charge属性表
+注意: 仅当'IsConsumables'为false是生效</t>
+  </si>
+  <si>
+    <t>使用道具的效果持续时间
+单位: 秒
+注意: 该持续时间与具体道具属性片段无关, 仅用于程序计算何时可以开始冷却道具</t>
+  </si>
+  <si>
     <t>使用一次后的冷却时间
 单位: 秒</t>
   </si>
@@ -77,7 +94,7 @@
     <t>是否是消耗品, 如果为true, 则每次使用都会消耗叠加数量</t>
   </si>
   <si>
-    <t>最大叠加次数, 仅当IsConsumables为true时有效</t>
+    <t>最大叠加次数, 仅当'IsConsumables'为true时有效</t>
   </si>
   <si>
     <t>string</t>
@@ -138,6 +155,21 @@
   </si>
   <si>
     <t>"PiggyBank":[2]</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>红外遥控器</t>
+  </si>
+  <si>
+    <t>prop5003</t>
+  </si>
+  <si>
+    <t>"AreaTrigger":[]</t>
+  </si>
+  <si>
+    <t>"Hurt":[100]</t>
   </si>
 </sst>
 </file>
@@ -1133,14 +1165,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1148,14 +1180,15 @@
     <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.7692307692308" style="3" customWidth="1"/>
-    <col min="4" max="6" width="51" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.2403846153846" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.4423076923077" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5384615384615" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3"/>
+    <col min="4" max="7" width="51" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.6057692307692" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.2403846153846" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.4423076923077" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5384615384615" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:9">
+    <row r="1" ht="31" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,142 +1216,196 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="102" customHeight="1" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="116" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3">
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="b">
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3">
+    <row r="6" ht="33" customHeight="1" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="b">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="b">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1"/>
+    </row>
     <row r="8" ht="33" customHeight="1"/>
     <row r="9" ht="33" customHeight="1"/>
     <row r="10" ht="33" customHeight="1"/>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -83,8 +83,7 @@
   </si>
   <si>
     <t>使用道具的效果持续时间
-单位: 秒
-注意: 该持续时间与具体道具属性片段无关, 仅用于程序计算何时可以开始冷却道具</t>
+单位: 秒</t>
   </si>
   <si>
     <t>使用一次后的冷却时间
@@ -166,10 +165,10 @@
     <t>prop5003</t>
   </si>
   <si>
-    <t>"AreaTrigger":[]</t>
-  </si>
-  <si>
-    <t>"Hurt":[100]</t>
+    <t>"AreaTrigger":[200]</t>
+  </si>
+  <si>
+    <t>"Hurt":[250]</t>
   </si>
 </sst>
 </file>
@@ -1168,11 +1167,11 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1394,7 +1393,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -102,7 +102,7 @@
     <t>$ActivityBase</t>
   </si>
   <si>
-    <t>{string:[float]}*</t>
+    <t>{string:[object]}*</t>
   </si>
   <si>
     <t>float</t>
@@ -1167,11 +1167,11 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -126,7 +126,7 @@
     <t>"HpFull":[0]</t>
   </si>
   <si>
-    <t>"Hp":[2]</t>
+    <t>"ChangeHp":[2]</t>
   </si>
   <si>
     <t>0002</t>
@@ -169,6 +169,57 @@
   </si>
   <si>
     <t>"Hurt":[250]</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>魔术棒</t>
+  </si>
+  <si>
+    <t>prop5004</t>
+  </si>
+  <si>
+    <t>"SwapWeapon":[]</t>
+  </si>
+  <si>
+    <t>"EnterRoom":[0.5]</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>便携式供血器</t>
+  </si>
+  <si>
+    <t>prop5005</t>
+  </si>
+  <si>
+    <t>"HpFull":[0],
+"Gold":["&gt;=",25]</t>
+  </si>
+  <si>
+    <t>"ChangeHp":[1],
+"UseGold":[25]</t>
+  </si>
+  <si>
+    <t>"EnterRoom":[1]</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>便携式献血器</t>
+  </si>
+  <si>
+    <t>prop5006</t>
+  </si>
+  <si>
+    <t>"Hp":["&gt;",1]</t>
+  </si>
+  <si>
+    <t>"ChangeHp":[-1],
+"GetGold":[20]</t>
   </si>
 </sst>
 </file>
@@ -1167,11 +1218,11 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1405,9 +1456,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1"/>
-    <row r="9" ht="33" customHeight="1"/>
-    <row r="10" ht="33" customHeight="1"/>
+    <row r="8" ht="33" customHeight="1" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="11" ht="33" customHeight="1"/>
     <row r="12" ht="41" customHeight="1"/>
     <row r="13" ht="28" customHeight="1"/>

--- a/DungeonShooting_Godot/excel/ActivePropBase.xlsx
+++ b/DungeonShooting_Godot/excel/ActivePropBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="26235" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -123,7 +136,7 @@
     <t>prop5000</t>
   </si>
   <si>
-    <t>"HpFull":[0]</t>
+    <t>"HpFull":[true]</t>
   </si>
   <si>
     <t>"ChangeHp":[2]</t>
@@ -138,7 +151,7 @@
     <t>prop5001</t>
   </si>
   <si>
-    <t>"AmmoFull":[0]</t>
+    <t>"AmmoFull":[true]</t>
   </si>
   <si>
     <t>"TotalAmmo":[]</t>
@@ -195,7 +208,7 @@
     <t>prop5005</t>
   </si>
   <si>
-    <t>"HpFull":[0],
+    <t>"HpFull":[true],
 "Gold":["&gt;=",25]</t>
   </si>
   <si>
@@ -1218,23 +1231,23 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.7692307692308" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.2333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.55" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7666666666667" style="3" customWidth="1"/>
     <col min="4" max="7" width="51" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.6057692307692" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.2403846153846" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.4423076923077" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5384615384615" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.6083333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.2416666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.4416666666667" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5416666666667" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1533,7 +1546,6 @@
       <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -1630,9 +1642,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="164.413461538462" customWidth="1"/>
+    <col min="2" max="2" width="164.416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -1705,7 +1717,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
